--- a/CPI raw rebased series 2021.xlsx
+++ b/CPI raw rebased series 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB6FAB-EA7B-4C84-88F5-AE94ADA18B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633535C-B7B6-46EA-B052-D6AAAEF8AFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t xml:space="preserve">Jordan </t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Yemen</t>
+  </si>
+  <si>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
         <v>2018</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>2013</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>2013</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>2008</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>2012</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>2014</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>2017</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>2018</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1119,7 +1119,7 @@
         <v>2013</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>2013</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>2007</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>2010</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
         <v>2015</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>2014</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>2008</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
